--- a/Align_Tracker.xlsx
+++ b/Align_Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Questions</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>What needs to be done for about us/get help/ links at bottom of page.</t>
+  </si>
+  <si>
+    <t>Can an event span multiple days?</t>
+  </si>
+  <si>
+    <t>If yes, then we would have to add fields for end date and end time as well.</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
@@ -649,17 +655,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,6 +703,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -707,7 +724,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Align_Tracker.xlsx
+++ b/Align_Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Questions</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>If yes, then we would have to add fields for end date and end time as well.</t>
+  </si>
+  <si>
+    <t>Where should we display current logged in user's name?</t>
+  </si>
+  <si>
+    <t>Where should we display the logout button?</t>
   </si>
 </sst>
 </file>
@@ -438,16 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -488,6 +494,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -498,7 +520,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
